--- a/APM files/135799008/135799008 EXPORT Promotion Export.xlsx
+++ b/APM files/135799008/135799008 EXPORT Promotion Export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/135799008/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D147D5C4-8428-3848-BE3A-A809D4A8B8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06712FB-6C7E-9843-8C37-70D3100E24F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="5040" windowWidth="25760" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Property Name</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -45,31 +45,13 @@
     <t>Rule ID</t>
   </si>
   <si>
-    <t>Exclude Inactive Rate Plan</t>
-  </si>
-  <si>
     <t>Hotel ID</t>
-  </si>
-  <si>
-    <t>Exclude ODYSSEY Project</t>
   </si>
   <si>
     <t>Hotel Rate Code</t>
   </si>
   <si>
     <t>Internal Name</t>
-  </si>
-  <si>
-    <t>Exclude Rate Plans</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Exclude Inactive Rate Rule</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -403,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="A20" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -416,14 +398,11 @@
     <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -432,345 +411,105 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2188002</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2708925</v>
       </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>9552154</v>
       </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>10632146</v>
       </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>13339542</v>
       </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>17247149</v>
       </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>17413467</v>
       </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>21595393</v>
       </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>23821663</v>
       </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>24939578</v>
       </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>27263415</v>
       </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>27572939</v>
       </c>
-      <c r="F13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>36869619</v>
       </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>39772860</v>
       </c>
-      <c r="F15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>40200187</v>
       </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>42061095</v>
       </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>83323482</v>
       </c>
-      <c r="F18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>106602175</v>
       </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>111195653</v>
-      </c>
-      <c r="F20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
